--- a/medicine/Sexualité et sexologie/Matador_(film)/Matador_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Matador_(film)/Matador_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matador est un film espagnol réalisé par Pedro Almodóvar en 1986, avec Antonio Banderas, Assumpta Serna et Nacho Martínez.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ángel (Antonio Banderas) est un jeune homme impuissant et troublé qui vit entre sa mère tyrannique, membre de l'Opus Dei, et les cours de tauromachie dispensés par le ténébreux Diego Montes (Nacho Martinez), qu'une blessure a contraint à la retraite.
 Un soir, Ángel, qui semble tourmenté par le désir d'affirmer sa virilité, tente de violer en pleine rue sa voisine, la jolie Eva, mannequin à ses heures et petite amie de Diego Montes. Cependant, son impuissance l'en empêche et il s'évanouit à la vue de l'égratignure que la jeune femme s'est faite en tombant. Le lendemain, il se dénonce auprès d'un commissaire (Eusebio Poncela). Puis, découvrant des photos de meurtres et de disparues dans le bureau, Ángel s'accuse de plusieurs crimes. En réalité, ceux-ci sont d'une part le fait de Diego, son maître, et d'autre part de Maria Cardenal (Assumpta Serna), une jeune avocate, véritable mante religieuse qui assassine ses amants d'un coup d'épingle dans la moelle épinière, à la fin de l'acte sexuel. Diego ne va d'ailleurs pas tarder à connaître cette femme, car c'est elle qui doit assurer la défense d'Ángel. 
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Matador
 Réalisation : Pedro Almodóvar
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Assumpta Serna : 	María Cardenal
 Antonio Banderas : Ángel
@@ -632,9 +650,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, Thomas Sotinel voit dans Matador un film imparfait et « un peu gauche » par rapport aux films suivants d'Almodóvar, qui y montre toutefois un « talent burlesque » et des « inspirations fulgurantes »[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, Thomas Sotinel voit dans Matador un film imparfait et « un peu gauche » par rapport aux films suivants d'Almodóvar, qui y montre toutefois un « talent burlesque » et des « inspirations fulgurantes ».
 </t>
         </is>
       </c>
